--- a/DateBase/orders/name005_2024-9-19.xlsx
+++ b/DateBase/orders/name005_2024-9-19.xlsx
@@ -449,6 +449,9 @@
       <c r="A2" t="str">
         <v>1</v>
       </c>
+      <c r="C2" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/name005_2024-9-19.xlsx
+++ b/DateBase/orders/name005_2024-9-19.xlsx
@@ -452,6 +452,9 @@
       <c r="C2" t="str">
         <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
+      <c r="F2" t="str">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -509,8 +512,8 @@
       <c r="F2" t="str">
         <v>0.00</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="str">
+        <v>012</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name005_2024-9-19.xlsx
+++ b/DateBase/orders/name005_2024-9-19.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -456,9 +456,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="C3" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
+      </c>
+      <c r="F3" t="str">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -513,7 +521,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012</v>
+        <v>0121</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name005_2024-9-19.xlsx
+++ b/DateBase/orders/name005_2024-9-19.xlsx
@@ -461,7 +461,7 @@
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
       <c r="F3" t="str">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -521,7 +521,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0121</v>
+        <v>01213</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name005_2024-9-19.xlsx
+++ b/DateBase/orders/name005_2024-9-19.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,9 +464,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4">
+      <c r="C4" t="str">
+        <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -521,7 +526,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01213</v>
+        <v>012130</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name005_2024-9-19.xlsx
+++ b/DateBase/orders/name005_2024-9-19.xlsx
@@ -468,6 +468,9 @@
       <c r="C4" t="str">
         <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
+      <c r="F4" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -526,7 +529,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012130</v>
+        <v>012131</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name005_2024-9-19.xlsx
+++ b/DateBase/orders/name005_2024-9-19.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -469,12 +469,17 @@
         <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
       <c r="F4" t="str">
-        <v>1</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -529,7 +534,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012131</v>
+        <v>01213140</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name005_2024-9-19.xlsx
+++ b/DateBase/orders/name005_2024-9-19.xlsx
@@ -476,6 +476,9 @@
       <c r="A5" t="str">
         <v>2</v>
       </c>
+      <c r="C5" t="str">
+        <v>13_绣球青花瓷_undefined_Hydrangea L.</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/name005_2024-9-19.xlsx
+++ b/DateBase/orders/name005_2024-9-19.xlsx
@@ -479,6 +479,9 @@
       <c r="C5" t="str">
         <v>13_绣球青花瓷_undefined_Hydrangea L.</v>
       </c>
+      <c r="F5" t="str">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -537,7 +540,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01213140</v>
+        <v>012131414</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name005_2024-9-19.xlsx
+++ b/DateBase/orders/name005_2024-9-19.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -483,9 +483,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6">
+      <c r="C6" t="str">
+        <v>20_波浪绿洋桔梗_Wavy Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L6"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -540,7 +545,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012131414</v>
+        <v>0121314140</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name005_2024-9-19.xlsx
+++ b/DateBase/orders/name005_2024-9-19.xlsx
@@ -487,6 +487,9 @@
       <c r="C6" t="str">
         <v>20_波浪绿洋桔梗_Wavy Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
+      <c r="F6" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -545,7 +548,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0121314140</v>
+        <v>0121314141</v>
       </c>
     </row>
   </sheetData>
